--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H2">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I2">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J2">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>882.8088269708699</v>
+        <v>62.08239758608801</v>
       </c>
       <c r="R2">
-        <v>5296.852961825219</v>
+        <v>248.329590344352</v>
       </c>
       <c r="S2">
-        <v>0.2272926773119636</v>
+        <v>0.01528471516109858</v>
       </c>
       <c r="T2">
-        <v>0.1775269200210984</v>
+        <v>0.008374879582947442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H3">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I3">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J3">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>637.0636526485814</v>
+        <v>36.581313253248</v>
       </c>
       <c r="R3">
-        <v>5733.572873837232</v>
+        <v>219.487879519488</v>
       </c>
       <c r="S3">
-        <v>0.1640218117499779</v>
+        <v>0.009006336337437333</v>
       </c>
       <c r="T3">
-        <v>0.1921638263974201</v>
+        <v>0.007402197049265158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H4">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I4">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J4">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>453.4378141890621</v>
+        <v>23.906026608336</v>
       </c>
       <c r="R4">
-        <v>4080.940327701559</v>
+        <v>143.436159650016</v>
       </c>
       <c r="S4">
-        <v>0.1167445222938594</v>
+        <v>0.00588567487000439</v>
       </c>
       <c r="T4">
-        <v>0.1367749439880818</v>
+        <v>0.00483736377627633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H5">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I5">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J5">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>750.4818283322738</v>
+        <v>52.990993017864</v>
       </c>
       <c r="R5">
-        <v>4502.890969993643</v>
+        <v>211.963972071456</v>
       </c>
       <c r="S5">
-        <v>0.1932230612384311</v>
+        <v>0.01304640712786061</v>
       </c>
       <c r="T5">
-        <v>0.1509168502231429</v>
+        <v>0.007148454356809004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H6">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I6">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J6">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>652.9894275488774</v>
+        <v>18.435455461584</v>
       </c>
       <c r="R6">
-        <v>5876.904847939896</v>
+        <v>110.612732769504</v>
       </c>
       <c r="S6">
-        <v>0.168122146844923</v>
+        <v>0.00453881770923381</v>
       </c>
       <c r="T6">
-        <v>0.1969676757937268</v>
+        <v>0.003730398443458833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H7">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I7">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J7">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>427.1738142196991</v>
+        <v>26.570213977824</v>
       </c>
       <c r="R7">
-        <v>3844.564327977291</v>
+        <v>159.421283866944</v>
       </c>
       <c r="S7">
-        <v>0.1099824525369891</v>
+        <v>0.00654159903952367</v>
       </c>
       <c r="T7">
-        <v>0.1288526732548015</v>
+        <v>0.005376459782715151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H8">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I8">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J8">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>10.49599771477275</v>
+        <v>1081.165093707046</v>
       </c>
       <c r="R8">
-        <v>41.983990859091</v>
+        <v>6486.990562242278</v>
       </c>
       <c r="S8">
-        <v>0.002702355650245067</v>
+        <v>0.2661833489358955</v>
       </c>
       <c r="T8">
-        <v>0.001407116384223752</v>
+        <v>0.2187728201828897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H9">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I9">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J9">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>7.574254400363999</v>
+        <v>637.0636526485812</v>
       </c>
       <c r="R9">
-        <v>45.44552640218399</v>
+        <v>5733.572873837232</v>
       </c>
       <c r="S9">
-        <v>0.001950108006064898</v>
+        <v>0.1568453675894219</v>
       </c>
       <c r="T9">
-        <v>0.001523131638552637</v>
+        <v>0.1933639174125623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H10">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I10">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J10">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>5.3910678236535</v>
+        <v>416.3235071958082</v>
       </c>
       <c r="R10">
-        <v>32.346406941921</v>
+        <v>3746.911564762274</v>
       </c>
       <c r="S10">
-        <v>0.001388013125574488</v>
+        <v>0.1024990411095764</v>
       </c>
       <c r="T10">
-        <v>0.001084107495438117</v>
+        <v>0.1263640515788856</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H11">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I11">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J11">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>8.922719522619749</v>
+        <v>922.8382626869889</v>
       </c>
       <c r="R11">
-        <v>35.690878090479</v>
+        <v>5537.029576121933</v>
       </c>
       <c r="S11">
-        <v>0.00229729104109523</v>
+        <v>0.2272032094987025</v>
       </c>
       <c r="T11">
-        <v>0.001196199272646585</v>
+        <v>0.1867355230721275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H12">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I12">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J12">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>7.763601053741999</v>
+        <v>321.0534983610561</v>
       </c>
       <c r="R12">
-        <v>46.581606322452</v>
+        <v>2889.481485249506</v>
       </c>
       <c r="S12">
-        <v>0.001998858207095416</v>
+        <v>0.07904352062302805</v>
       </c>
       <c r="T12">
-        <v>0.001561207977578196</v>
+        <v>0.09744734593474964</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H13">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I13">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J13">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>5.078806691642501</v>
+        <v>462.720336232435</v>
       </c>
       <c r="R13">
-        <v>30.472840149855</v>
+        <v>4164.483026091915</v>
       </c>
       <c r="S13">
-        <v>0.001307616706160813</v>
+        <v>0.1139219619982173</v>
       </c>
       <c r="T13">
-        <v>0.001021313881107793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.147371</v>
-      </c>
-      <c r="I14">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J14">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>164.5772705</v>
-      </c>
-      <c r="N14">
-        <v>329.154541</v>
-      </c>
-      <c r="O14">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P14">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q14">
-        <v>8.084638976951833</v>
-      </c>
-      <c r="R14">
-        <v>48.507833861711</v>
-      </c>
-      <c r="S14">
-        <v>0.002081514346064271</v>
-      </c>
-      <c r="T14">
-        <v>0.001625766545612646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.147371</v>
-      </c>
-      <c r="I15">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J15">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>118.764328</v>
-      </c>
-      <c r="N15">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O15">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P15">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q15">
-        <v>5.834139260562666</v>
-      </c>
-      <c r="R15">
-        <v>52.50725334506399</v>
-      </c>
-      <c r="S15">
-        <v>0.001502088664987809</v>
-      </c>
-      <c r="T15">
-        <v>0.001759809273977787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.147371</v>
-      </c>
-      <c r="I16">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J16">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N16">
-        <v>253.595871</v>
-      </c>
-      <c r="O16">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P16">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q16">
-        <v>4.152519678349</v>
-      </c>
-      <c r="R16">
-        <v>37.372677105141</v>
-      </c>
-      <c r="S16">
-        <v>0.001069129902700556</v>
-      </c>
-      <c r="T16">
-        <v>0.001252565685178562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.147371</v>
-      </c>
-      <c r="I17">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J17">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>139.9082645</v>
-      </c>
-      <c r="N17">
-        <v>279.816529</v>
-      </c>
-      <c r="O17">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P17">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q17">
-        <v>6.872806949209834</v>
-      </c>
-      <c r="R17">
-        <v>41.236841695259</v>
-      </c>
-      <c r="S17">
-        <v>0.001769509597558337</v>
-      </c>
-      <c r="T17">
-        <v>0.001382075271924171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.147371</v>
-      </c>
-      <c r="I18">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J18">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>121.733284</v>
-      </c>
-      <c r="N18">
-        <v>365.199852</v>
-      </c>
-      <c r="O18">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P18">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q18">
-        <v>5.979985265454666</v>
-      </c>
-      <c r="R18">
-        <v>53.819867389092</v>
-      </c>
-      <c r="S18">
-        <v>0.001539638956641441</v>
-      </c>
-      <c r="T18">
-        <v>0.001803802250579582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.147371</v>
-      </c>
-      <c r="I19">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J19">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N19">
-        <v>238.907105</v>
-      </c>
-      <c r="O19">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P19">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q19">
-        <v>3.911997663439445</v>
-      </c>
-      <c r="R19">
-        <v>35.207978970955</v>
-      </c>
-      <c r="S19">
-        <v>0.001007203819667559</v>
-      </c>
-      <c r="T19">
-        <v>0.001180014644908598</v>
+        <v>0.1404465888273133</v>
       </c>
     </row>
   </sheetData>
